--- a/data_raw/cax_radar_metadata_caxiuana_12_05_2023.xlsx
+++ b/data_raw/cax_radar_metadata_caxiuana_12_05_2023.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cax_census!$S$1:$S$297</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'trees selected for CaxRadar'!$A$1:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'trees selected for CaxRadar'!$B$1:$B$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="1024">
   <si>
     <t>Control</t>
   </si>
@@ -2725,15 +2725,9 @@
     <t>Not measuring</t>
   </si>
   <si>
-    <t>sapflow</t>
-  </si>
-  <si>
     <t>phloem_depth_mm</t>
   </si>
   <si>
-    <t>flora_pulse</t>
-  </si>
-  <si>
     <t>genus</t>
   </si>
   <si>
@@ -2794,9 +2788,6 @@
     <t>flora_pulse_sensor</t>
   </si>
   <si>
-    <t>installed</t>
-  </si>
-  <si>
     <t>A218</t>
   </si>
   <si>
@@ -2809,9 +2800,6 @@
     <t>A210</t>
   </si>
   <si>
-    <t>Installed</t>
-  </si>
-  <si>
     <t>phloem_depth_cm</t>
   </si>
   <si>
@@ -2824,9 +2812,6 @@
     <t>Pouterias could go out if we need to reduce the number of trees in this class</t>
   </si>
   <si>
-    <t>not measuring</t>
-  </si>
-  <si>
     <t>voltage sapflow 10.8</t>
   </si>
   <si>
@@ -3013,9 +2998,6 @@
     <t>replace for 80</t>
   </si>
   <si>
-    <t>data_checked_1</t>
-  </si>
-  <si>
     <t>check dendrometer</t>
   </si>
   <si>
@@ -3025,27 +3007,6 @@
     <t>logger changed, check voltage</t>
   </si>
   <si>
-    <t>something happened with the dendrometer, big discrete incrase provoking lower sapflow</t>
-  </si>
-  <si>
-    <t>voltage too high</t>
-  </si>
-  <si>
-    <t>voltage too low</t>
-  </si>
-  <si>
-    <t>voltage too high and then too low</t>
-  </si>
-  <si>
-    <t>voltage too low, data intermitent</t>
-  </si>
-  <si>
-    <t>check data again</t>
-  </si>
-  <si>
-    <t>cabling</t>
-  </si>
-  <si>
     <t>bad_data</t>
   </si>
   <si>
@@ -3058,21 +3019,12 @@
     <t>medium_data</t>
   </si>
   <si>
-    <t>teros12</t>
-  </si>
-  <si>
     <t>teros12_port</t>
   </si>
   <si>
-    <t>not_responding?</t>
-  </si>
-  <si>
     <t>TFE_205</t>
   </si>
   <si>
-    <t>not_installed?</t>
-  </si>
-  <si>
     <t>B255</t>
   </si>
   <si>
@@ -3124,7 +3076,34 @@
     <t>z6-20610</t>
   </si>
   <si>
-    <t>not_responding</t>
+    <t>dendrometer_EMS</t>
+  </si>
+  <si>
+    <t>sapflow_EMS</t>
+  </si>
+  <si>
+    <t>data_checked_28_09_2023</t>
+  </si>
+  <si>
+    <t>data_problem_28_09_2023</t>
+  </si>
+  <si>
+    <t>no_datalogger</t>
+  </si>
+  <si>
+    <t>stem_water_content_teros12</t>
+  </si>
+  <si>
+    <t>stem_water_potential_flora_pulse</t>
+  </si>
+  <si>
+    <t>data_checked_29_09_2023</t>
+  </si>
+  <si>
+    <t>data_problem_29_09_2023</t>
+  </si>
+  <si>
+    <t>florapulse_logger</t>
   </si>
 </sst>
 </file>
@@ -3249,7 +3228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,7 +3278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3331,9 +3310,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3386,7 +3369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="30402" y="0"/>
-          <a:ext cx="8097688" cy="6830268"/>
+          <a:ext cx="8139403" cy="6714752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5526,16 +5509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5729</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>305741</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199302</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>108727</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>587962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5544,8 +5527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958916" y="3685843"/>
-          <a:ext cx="118341" cy="102998"/>
+          <a:off x="8255000" y="5635038"/>
+          <a:ext cx="282221" cy="192852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5754,6 +5737,430 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496094</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4163219" y="3476625"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537369</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100806</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5327650" y="3652837"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394494</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493713</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5283994" y="5014119"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3701560" y="3162288"/>
+          <a:ext cx="99219" cy="97344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312694</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>568074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>150518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8261953" y="5269170"/>
+          <a:ext cx="255380" cy="201237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>583464</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57110</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="994696" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8532723" y="5193554"/>
+          <a:ext cx="994696" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" i="1"/>
+            <a:t>wc logger</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67064</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>16954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185405</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4958916" y="3685843"/>
+          <a:ext cx="118341" cy="102998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599457</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1011302" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8548716" y="5557620"/>
+          <a:ext cx="1011302" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" i="1"/>
+            <a:t>florapulse</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6818,7 +7225,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -6868,7 +7275,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -6918,7 +7325,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -6968,7 +7375,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7018,7 +7425,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7070,7 +7477,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7120,7 +7527,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7170,7 +7577,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7220,7 +7627,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
         </a:ln>
@@ -7271,7 +7678,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7331,7 +7738,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7391,7 +7798,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7511,7 +7918,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7571,7 +7978,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7693,7 +8100,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7753,7 +8160,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7813,7 +8220,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7873,7 +8280,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -8109,6 +8516,378 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80973</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180192</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3737550" y="2373792"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>507147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606366</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2335436" y="1508658"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294061</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5462</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122350" y="2471813"/>
+          <a:ext cx="99219" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110435</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365815</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8006522" y="5197337"/>
+          <a:ext cx="255380" cy="207065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>75924</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="994696" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8310217" y="5107609"/>
+          <a:ext cx="994696" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" i="1"/>
+            <a:t>wc logger</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>305741</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>131705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>587962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8230541" y="5656205"/>
+          <a:ext cx="282221" cy="193557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599457</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1011302" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524257" y="5578787"/>
+          <a:ext cx="1011302" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" i="1"/>
+            <a:t>florapulse</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8375,123 +9154,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="400" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="25.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="19.90625" style="12" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" style="14" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="3"/>
-    <col min="9" max="9" width="52.36328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" style="12" customWidth="1"/>
-    <col min="11" max="12" width="24.08984375" style="12" customWidth="1"/>
-    <col min="13" max="15" width="19.90625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="23.54296875" style="12" customWidth="1"/>
-    <col min="17" max="18" width="22.81640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.90625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.36328125" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="23" width="24.36328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="81.6328125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="23.81640625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.81640625" style="3"/>
+    <col min="9" max="9" width="29.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="52.36328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="32" style="12" customWidth="1"/>
+    <col min="12" max="13" width="24.08984375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="32.08984375" style="12" customWidth="1"/>
+    <col min="15" max="17" width="19.90625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" style="12" customWidth="1"/>
+    <col min="19" max="20" width="22.81640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.90625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="24.36328125" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="24.36328125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="81.6328125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="23.81640625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>903</v>
+    <row r="1" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>891</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>891</v>
+      <c r="D1" s="16" t="s">
+        <v>931</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="U1" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>935</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>902</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>898</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>983</v>
-      </c>
       <c r="W1" s="15" t="s">
-        <v>984</v>
+        <v>922</v>
       </c>
       <c r="X1" s="15" t="s">
+        <v>978</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>354</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
@@ -8505,64 +9291,68 @@
       <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="O2" s="21">
+      <c r="N2" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21">
         <v>-4.4816000000000003</v>
       </c>
-      <c r="P2" s="21">
+      <c r="R2" s="21">
         <v>-48.5</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>161.5</v>
       </c>
-      <c r="R2" s="6">
-        <f t="shared" ref="R2:R48" si="0">Q2*10</f>
+      <c r="T2" s="6">
+        <f t="shared" ref="T2:T42" si="0">S2*10</f>
         <v>1615</v>
       </c>
-      <c r="S2" s="7">
-        <f t="shared" ref="S2:S48" si="1">Q2/PI()</f>
+      <c r="U2" s="7">
+        <f t="shared" ref="U2:U42" si="1">S2/PI()</f>
         <v>51.407046618682195</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="1">
         <v>12</v>
       </c>
-      <c r="U2" s="6">
-        <f t="shared" ref="U2:U27" si="2">T2/10</f>
+      <c r="W2" s="6">
+        <f t="shared" ref="W2:W42" si="2">V2/10</f>
         <v>1.2</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="1"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>312</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>944</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
@@ -8575,55 +9365,59 @@
         <v>4</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>1005</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>999</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1">
         <v>90</v>
       </c>
-      <c r="R3" s="6">
+      <c r="T3" s="6">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="S3" s="7">
+      <c r="U3" s="7">
         <f t="shared" si="1"/>
         <v>28.647889756541161</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>6</v>
       </c>
-      <c r="U3" s="6">
+      <c r="W3" s="6">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>316</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5" t="s">
@@ -8636,63 +9430,67 @@
         <v>4</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="O4" s="21">
+        <v>1005</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="21">
         <v>-4.3640999999999996</v>
       </c>
-      <c r="P4" s="21">
+      <c r="R4" s="21">
         <v>-34.020000000000003</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>189</v>
       </c>
-      <c r="R4" s="6">
+      <c r="T4" s="6">
         <f t="shared" si="0"/>
         <v>1890</v>
       </c>
-      <c r="S4" s="7">
+      <c r="U4" s="7">
         <f t="shared" si="1"/>
         <v>60.160568488736438</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="6">
+      <c r="W4" s="6">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="1"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>317</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
@@ -8704,64 +9502,68 @@
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>921</v>
-      </c>
-      <c r="O5" s="21">
+        <v>1005</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21">
         <v>-4.5202</v>
       </c>
-      <c r="P5" s="21">
+      <c r="R5" s="21">
         <v>-27.39</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>64.5</v>
       </c>
-      <c r="R5" s="6">
+      <c r="T5" s="6">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="S5" s="7">
+      <c r="U5" s="7">
         <f t="shared" si="1"/>
         <v>20.5309876588545</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>6</v>
       </c>
-      <c r="U5" s="6">
+      <c r="W5" s="6">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="1"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>313</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5" t="s">
@@ -8774,63 +9576,67 @@
         <v>4</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K6" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M6" s="20" t="s">
         <v>1005</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>1003</v>
+      </c>
       <c r="N6" s="20" t="s">
-        <v>913</v>
-      </c>
-      <c r="O6" s="21">
+        <v>992</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21">
         <v>-7.4211</v>
       </c>
-      <c r="P6" s="21">
+      <c r="R6" s="21">
         <v>-55.48</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>70.5</v>
       </c>
-      <c r="R6" s="6">
+      <c r="T6" s="6">
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="S6" s="7">
+      <c r="U6" s="7">
         <f t="shared" si="1"/>
         <v>22.440846975957243</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>9</v>
       </c>
-      <c r="U6" s="6">
+      <c r="W6" s="6">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="1"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>315</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5" t="s">
@@ -8843,516 +9649,548 @@
         <v>4</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K7" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>1005</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1001</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1">
         <v>56</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="S7" s="7">
+      <c r="U7" s="7">
         <f t="shared" si="1"/>
         <v>17.82535362629228</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>8</v>
       </c>
-      <c r="U7" s="6">
+      <c r="W7" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="1" t="s">
-        <v>995</v>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="1" t="s">
+        <v>989</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <v>279</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>941</v>
+      <c r="D8" s="2">
+        <v>359</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1026</v>
+      <c r="I8" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>1007</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="1">
-        <v>54</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1">
+        <v>109</v>
+      </c>
+      <c r="T8" s="6">
         <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="S8" s="7">
+        <v>1090</v>
+      </c>
+      <c r="U8" s="7">
         <f t="shared" si="1"/>
-        <v>17.188733853924695</v>
-      </c>
-      <c r="T8" s="1">
-        <v>6</v>
-      </c>
-      <c r="U8" s="6">
+        <v>34.695777594033181</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+      <c r="W8" s="6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="1" t="s">
-        <v>994</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>890</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>952</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
-        <v>363</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
+      <c r="D9" s="2">
+        <v>357</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="1">
-        <v>203</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1">
+        <v>50</v>
+      </c>
+      <c r="T9" s="6">
         <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="S9" s="7">
+        <v>500</v>
+      </c>
+      <c r="U9" s="7">
         <f t="shared" si="1"/>
-        <v>64.616906895309512</v>
-      </c>
-      <c r="T9" s="1">
-        <v>11</v>
-      </c>
-      <c r="U9" s="6">
+        <v>15.915494309189533</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9" s="6">
         <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="1" t="s">
+        <v>990</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>204</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>951</v>
+      <c r="D10" s="2">
+        <v>211</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="O10" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="1">
-        <v>166</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21">
+        <v>-4.3776999999999999</v>
+      </c>
+      <c r="R10" s="21">
+        <v>-12.84</v>
+      </c>
+      <c r="S10" s="6">
+        <v>94</v>
+      </c>
+      <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>1660</v>
-      </c>
-      <c r="S10" s="7">
+        <v>940</v>
+      </c>
+      <c r="U10" s="7">
         <f t="shared" si="1"/>
-        <v>52.839441106509256</v>
-      </c>
-      <c r="T10" s="1">
-        <v>10</v>
-      </c>
-      <c r="U10" s="6">
+        <v>29.921129301276324</v>
+      </c>
+      <c r="V10" s="6">
+        <v>3</v>
+      </c>
+      <c r="W10" s="6">
         <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>262</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>308</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="E11" s="2"/>
       <c r="F11" s="5" t="s">
-        <v>502</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>501</v>
+        <v>47</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>1008</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="1">
-        <v>274</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="6">
+        <v>126</v>
+      </c>
+      <c r="T11" s="6">
         <f t="shared" si="0"/>
-        <v>2740</v>
-      </c>
-      <c r="S11" s="7">
+        <v>1260</v>
+      </c>
+      <c r="U11" s="7">
         <f t="shared" si="1"/>
-        <v>87.216908814358646</v>
-      </c>
-      <c r="T11" s="1">
-        <v>13</v>
-      </c>
-      <c r="U11" s="6">
+        <v>40.107045659157627</v>
+      </c>
+      <c r="V11" s="6">
+        <v>4</v>
+      </c>
+      <c r="W11" s="6">
         <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>211</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>938</v>
+      <c r="D12" s="2">
+        <v>215</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="6">
+        <v>222</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="0"/>
+        <v>2220</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="1"/>
+        <v>70.664794732801525</v>
+      </c>
+      <c r="V12" s="6">
+        <v>5</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>264</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="6">
         <v>92</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="O12" s="21">
-        <v>-4.3776999999999999</v>
-      </c>
-      <c r="P12" s="21">
-        <v>-12.84</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>94</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="T13" s="6">
         <f t="shared" si="0"/>
-        <v>940</v>
-      </c>
-      <c r="S12" s="7">
+        <v>920</v>
+      </c>
+      <c r="U13" s="7">
         <f t="shared" si="1"/>
-        <v>29.921129301276324</v>
-      </c>
-      <c r="T12" s="6">
+        <v>29.284509528908742</v>
+      </c>
+      <c r="V13" s="6">
         <v>3</v>
       </c>
-      <c r="U12" s="6">
+      <c r="W13" s="6">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="1"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D14" s="2">
         <v>216</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="H14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="O13" s="21">
+      <c r="J14" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21">
         <v>-4.3742999999999999</v>
       </c>
-      <c r="P13" s="21">
+      <c r="R14" s="21">
         <v>-16.75</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="S14" s="6">
         <v>139</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T14" s="6">
         <f t="shared" si="0"/>
         <v>1390</v>
       </c>
-      <c r="S13" s="7">
+      <c r="U14" s="7">
         <f t="shared" si="1"/>
         <v>44.245074179546904</v>
       </c>
-      <c r="T13" s="6">
+      <c r="V14" s="6">
         <v>6</v>
       </c>
-      <c r="U13" s="6">
+      <c r="W14" s="6">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="19" t="s">
-        <v>931</v>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="19" t="s">
+        <v>926</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>262</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="6">
-        <v>126</v>
-      </c>
-      <c r="R14" s="6">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="S14" s="7">
-        <f t="shared" si="1"/>
-        <v>40.107045659157627</v>
-      </c>
-      <c r="T14" s="6">
-        <v>4</v>
-      </c>
-      <c r="U14" s="6">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>259</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
@@ -9365,69 +10203,73 @@
         <v>4</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N15" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>915</v>
-      </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21">
         <v>7.1729000000000003</v>
       </c>
-      <c r="P15" s="21">
+      <c r="R15" s="21">
         <v>2.14</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="S15" s="6">
         <v>243</v>
       </c>
-      <c r="R15" s="6">
+      <c r="T15" s="6">
         <f t="shared" si="0"/>
         <v>2430</v>
       </c>
-      <c r="S15" s="7">
+      <c r="U15" s="7">
         <f t="shared" si="1"/>
         <v>77.349302342661133</v>
       </c>
-      <c r="T15" s="6">
+      <c r="V15" s="6">
         <v>9</v>
       </c>
-      <c r="U15" s="6">
+      <c r="W15" s="6">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="1"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
-        <v>215</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>949</v>
+      <c r="D16" s="2">
+        <v>363</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>14</v>
@@ -9436,646 +10278,686 @@
         <v>4</v>
       </c>
       <c r="I16" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="6">
-        <v>222</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1">
+        <v>203</v>
+      </c>
+      <c r="T16" s="6">
         <f t="shared" si="0"/>
-        <v>2220</v>
-      </c>
-      <c r="S16" s="7">
+        <v>2030</v>
+      </c>
+      <c r="U16" s="7">
         <f t="shared" si="1"/>
-        <v>70.664794732801525</v>
-      </c>
-      <c r="T16" s="6">
+        <v>64.616906895309512</v>
+      </c>
+      <c r="V16" s="1">
+        <v>11</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>279</v>
+      </c>
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="U16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>264</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1024</v>
+      <c r="I17" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>1010</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1001</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="6">
-        <v>92</v>
-      </c>
-      <c r="R17" s="6">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1">
+        <v>54</v>
+      </c>
+      <c r="T17" s="6">
         <f t="shared" si="0"/>
-        <v>920</v>
-      </c>
-      <c r="S17" s="7">
+        <v>540</v>
+      </c>
+      <c r="U17" s="7">
         <f t="shared" si="1"/>
-        <v>29.284509528908742</v>
-      </c>
-      <c r="T17" s="6">
+        <v>17.188733853924695</v>
+      </c>
+      <c r="V17" s="1">
+        <v>6</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>204</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="1">
+        <v>166</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="1"/>
+        <v>52.839441106509256</v>
+      </c>
+      <c r="V18" s="1">
+        <v>10</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>308</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="1">
+        <v>274</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="0"/>
+        <v>2740</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="1"/>
+        <v>87.216908814358646</v>
+      </c>
+      <c r="V19" s="1">
+        <v>13</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>218</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21">
+        <v>-4.4040999999999997</v>
+      </c>
+      <c r="R20" s="21">
+        <v>14.63</v>
+      </c>
+      <c r="S20" s="6">
+        <v>92.5</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="1"/>
+        <v>29.443664472000638</v>
+      </c>
+      <c r="V20" s="6">
+        <v>2</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>220</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>-7.2769000000000004</v>
+      </c>
+      <c r="R21" s="2">
+        <v>42.61</v>
+      </c>
+      <c r="S21" s="6">
+        <v>213</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="0"/>
+        <v>2130</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="1"/>
+        <v>67.800005757147417</v>
+      </c>
+      <c r="V21" s="6">
+        <v>9</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>256</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="U17" s="6">
+      <c r="F22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21">
+        <v>-4.3613999999999997</v>
+      </c>
+      <c r="R22" s="21">
+        <v>-10.59</v>
+      </c>
+      <c r="S22" s="6">
+        <v>49</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="1"/>
+        <v>15.597184423005743</v>
+      </c>
+      <c r="V22" s="6">
+        <v>3</v>
+      </c>
+      <c r="W22" s="6">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="1"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="1" t="s">
+        <v>925</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <v>218</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D23" s="2">
+        <v>322</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="6">
+        <v>83</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="1"/>
+        <v>26.419720553254628</v>
+      </c>
+      <c r="V23" s="6">
+        <v>5</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>249</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="6">
+        <v>39</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="1"/>
+        <v>12.414085561167836</v>
+      </c>
+      <c r="V24" s="6">
         <v>2</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>911</v>
-      </c>
-      <c r="O18" s="21">
-        <v>-4.4040999999999997</v>
-      </c>
-      <c r="P18" s="21">
-        <v>14.63</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>92.5</v>
-      </c>
-      <c r="R18" s="6">
-        <f t="shared" si="0"/>
-        <v>925</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" si="1"/>
-        <v>29.443664472000638</v>
-      </c>
-      <c r="T18" s="6">
-        <v>2</v>
-      </c>
-      <c r="U18" s="6">
+      <c r="W24" s="6">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="1"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2">
-        <v>220</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="O19" s="2">
-        <v>-7.2769000000000004</v>
-      </c>
-      <c r="P19" s="2">
-        <v>42.61</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>213</v>
-      </c>
-      <c r="R19" s="6">
-        <f t="shared" si="0"/>
-        <v>2130</v>
-      </c>
-      <c r="S19" s="7">
-        <f t="shared" si="1"/>
-        <v>67.800005757147417</v>
-      </c>
-      <c r="T19" s="6">
-        <v>9</v>
-      </c>
-      <c r="U19" s="6">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="D25" s="2">
         <v>252</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>930</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="6">
-        <v>336</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" si="0"/>
-        <v>3360</v>
-      </c>
-      <c r="S20" s="7">
-        <f t="shared" si="1"/>
-        <v>106.95212175775367</v>
-      </c>
-      <c r="T20" s="6">
-        <v>12</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>256</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="O21" s="21">
-        <v>-4.3613999999999997</v>
-      </c>
-      <c r="P21" s="21">
-        <v>-10.59</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>49</v>
-      </c>
-      <c r="R21" s="6">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="S21" s="7">
-        <f t="shared" si="1"/>
-        <v>15.597184423005743</v>
-      </c>
-      <c r="T21" s="6">
-        <v>3</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>322</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="6">
-        <v>83</v>
-      </c>
-      <c r="R22" s="6">
-        <f t="shared" si="0"/>
-        <v>830</v>
-      </c>
-      <c r="S22" s="7">
-        <f t="shared" si="1"/>
-        <v>26.419720553254628</v>
-      </c>
-      <c r="T22" s="6">
-        <v>5</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>249</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="6">
-        <v>39</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="S23" s="7">
-        <f t="shared" si="1"/>
-        <v>12.414085561167836</v>
-      </c>
-      <c r="T23" s="6">
-        <v>2</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>359</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="1">
-        <v>109</v>
-      </c>
-      <c r="R24" s="6">
-        <f t="shared" si="0"/>
-        <v>1090</v>
-      </c>
-      <c r="S24" s="7">
-        <f t="shared" si="1"/>
-        <v>34.695777594033181</v>
-      </c>
-      <c r="T24" s="1">
-        <v>10</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>357</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>47</v>
+        <v>371</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>1013</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="1">
-        <v>50</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="6">
+        <v>336</v>
+      </c>
+      <c r="T25" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="S25" s="7">
+        <v>3360</v>
+      </c>
+      <c r="U25" s="7">
         <f t="shared" si="1"/>
-        <v>15.915494309189533</v>
-      </c>
-      <c r="T25" s="1">
-        <v>5</v>
-      </c>
-      <c r="U25" s="6">
+        <v>106.95212175775367</v>
+      </c>
+      <c r="V25" s="6">
+        <v>12</v>
+      </c>
+      <c r="W25" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="1" t="s">
-        <v>996</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="24">
+      <c r="D26" s="24">
         <v>255</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>945</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
@@ -10088,45 +10970,47 @@
         <v>4</v>
       </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18">
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="26">
+      <c r="U26" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18">
+      <c r="V26" s="18"/>
+      <c r="W26" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="23" t="s">
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="23" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:26" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="C27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="24">
+      <c r="D27" s="24">
         <v>394</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>962</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="25" t="s">
@@ -10139,629 +11023,686 @@
         <v>4</v>
       </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18">
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="26">
+      <c r="U27" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18">
+      <c r="V27" s="18"/>
+      <c r="W27" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18" t="s">
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2">
-        <v>168</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>207</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>771</v>
+        <v>57</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>770</v>
+        <v>56</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1028</v>
+        <v>1016</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="6">
-        <v>117</v>
-      </c>
-      <c r="R28" s="6">
+        <v>1006</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="22">
+        <v>-4.4978999999999996</v>
+      </c>
+      <c r="R28" s="21">
+        <v>-46.19</v>
+      </c>
+      <c r="S28" s="1">
+        <v>148.5</v>
+      </c>
+      <c r="T28" s="6">
         <f t="shared" si="0"/>
-        <v>1170</v>
-      </c>
-      <c r="S28" s="7">
+        <v>1485</v>
+      </c>
+      <c r="U28" s="7">
         <f t="shared" si="1"/>
-        <v>37.242256683503513</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="1"/>
+        <v>47.269018098292918</v>
+      </c>
+      <c r="V28" s="1">
+        <v>6</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2">
-        <v>217</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>969</v>
+      <c r="D29" s="2">
+        <v>267</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>840</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21">
+        <v>-6.7584999999999997</v>
+      </c>
+      <c r="R29" s="21">
+        <v>31.54</v>
+      </c>
+      <c r="S29" s="1">
+        <v>198.5</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" si="1"/>
+        <v>63.184512407482451</v>
+      </c>
+      <c r="V29" s="1">
+        <v>10</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2">
+        <v>204</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L29" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="6">
-        <v>121</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="J30" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2">
+        <v>93</v>
+      </c>
+      <c r="T30" s="6">
         <f t="shared" si="0"/>
-        <v>1210</v>
-      </c>
-      <c r="S29" s="7">
+        <v>930</v>
+      </c>
+      <c r="U30" s="11">
         <f t="shared" si="1"/>
-        <v>38.515496228238675</v>
-      </c>
-      <c r="T29" s="6">
-        <v>3</v>
-      </c>
-      <c r="U29" s="6">
-        <f t="shared" ref="U29:U48" si="3">T29/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="1"/>
+        <v>29.602819415092533</v>
+      </c>
+      <c r="V30" s="2">
+        <v>4</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="2" t="s">
+        <v>903</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2">
-        <v>169</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="O30" s="21">
-        <v>-4.3757999999999999</v>
-      </c>
-      <c r="P30" s="21">
-        <v>-5.53</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>184</v>
-      </c>
-      <c r="R30" s="6">
-        <f t="shared" si="0"/>
-        <v>1840</v>
-      </c>
-      <c r="S30" s="7">
-        <f t="shared" si="1"/>
-        <v>58.569019057817485</v>
-      </c>
-      <c r="T30" s="6">
-        <v>5</v>
-      </c>
-      <c r="U30" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2">
-        <v>213</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>977</v>
+      <c r="D31" s="2">
+        <v>270</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="5" t="s">
-        <v>534</v>
+        <v>34</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>1028</v>
+        <v>1016</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="O31" s="21">
-        <v>-7.2279</v>
-      </c>
-      <c r="P31" s="21">
-        <v>-8.7100000000000009</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>72</v>
-      </c>
-      <c r="R31" s="6">
+        <v>1006</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21">
+        <v>-6.4512999999999998</v>
+      </c>
+      <c r="R31" s="21">
+        <v>21.75</v>
+      </c>
+      <c r="S31" s="1">
+        <v>223</v>
+      </c>
+      <c r="T31" s="6">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="S31" s="7">
+        <v>2230</v>
+      </c>
+      <c r="U31" s="7">
         <f t="shared" si="1"/>
-        <v>22.918311805232928</v>
-      </c>
-      <c r="T31" s="6">
-        <v>4</v>
-      </c>
-      <c r="U31" s="6">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="1"/>
+        <v>70.983104618985323</v>
+      </c>
+      <c r="V31" s="1">
+        <v>11</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>888</v>
+        <v>970</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="2">
-        <v>214.3</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>978</v>
+      <c r="D32" s="2">
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>1028</v>
+        <v>4</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>1006</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>998</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="1">
-        <v>42</v>
-      </c>
-      <c r="R32" s="6">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="1">
+        <v>501</v>
+      </c>
+      <c r="T32" s="6">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="S32" s="7">
+        <v>5010</v>
+      </c>
+      <c r="U32" s="7">
         <f t="shared" si="1"/>
-        <v>13.369015219719209</v>
-      </c>
-      <c r="T32" s="1">
-        <v>5</v>
-      </c>
-      <c r="U32" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="1" t="s">
-        <v>933</v>
-      </c>
+        <v>159.47325297807913</v>
+      </c>
+      <c r="V32" s="1">
+        <v>18</v>
+      </c>
+      <c r="W32" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="2">
-        <v>214.1</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>979</v>
+      <c r="D33" s="2">
+        <v>211</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J33" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21">
+        <v>-4.4039000000000001</v>
+      </c>
+      <c r="R33" s="21">
+        <v>-5.81</v>
+      </c>
+      <c r="S33" s="1">
+        <v>92</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="0"/>
         <v>920</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="6">
-        <v>33</v>
-      </c>
-      <c r="R33" s="6">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="S33" s="7">
+      <c r="U33" s="7">
         <f t="shared" si="1"/>
-        <v>10.504226244065093</v>
-      </c>
-      <c r="T33" s="6">
-        <v>2</v>
-      </c>
-      <c r="U33" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="1"/>
+        <v>29.284509528908742</v>
+      </c>
+      <c r="V33" s="1">
+        <v>7</v>
+      </c>
+      <c r="W33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="2">
-        <v>267</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>964</v>
+      <c r="D34" s="2">
+        <v>200</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>840</v>
+        <v>90</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>839</v>
+        <v>69</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="O34" s="21">
-        <v>-6.7584999999999997</v>
-      </c>
-      <c r="P34" s="21">
-        <v>31.54</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>198.5</v>
-      </c>
-      <c r="R34" s="6">
+        <v>1009</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21">
+        <v>-4.4012000000000002</v>
+      </c>
+      <c r="R34" s="21">
+        <v>-9.4700000000000006</v>
+      </c>
+      <c r="S34" s="1">
+        <v>108</v>
+      </c>
+      <c r="T34" s="6">
         <f t="shared" si="0"/>
-        <v>1985</v>
-      </c>
-      <c r="S34" s="7">
+        <v>1080</v>
+      </c>
+      <c r="U34" s="7">
         <f t="shared" si="1"/>
-        <v>63.184512407482451</v>
-      </c>
-      <c r="T34" s="1">
-        <v>10</v>
-      </c>
-      <c r="U34" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="1"/>
+        <v>34.377467707849391</v>
+      </c>
+      <c r="V34" s="1">
+        <v>6</v>
+      </c>
+      <c r="W34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="1" t="s">
+        <v>927</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2">
-        <v>207</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="1">
+        <v>99</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="1"/>
+        <v>31.512678732195276</v>
+      </c>
+      <c r="V35" s="1">
+        <v>12</v>
+      </c>
+      <c r="W35" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2">
+        <v>111</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="2">
+        <v>-4.4614000000000003</v>
+      </c>
+      <c r="R36" s="2">
+        <v>-15.51</v>
+      </c>
+      <c r="S36" s="1">
+        <v>160</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="U36" s="7">
+        <f t="shared" si="1"/>
+        <v>50.929581789406512</v>
+      </c>
+      <c r="V36" s="1">
+        <v>12</v>
+      </c>
+      <c r="W36" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="E35" s="2">
-        <v>4</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M35" s="33" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>910</v>
-      </c>
-      <c r="O35" s="22">
-        <v>-4.4978999999999996</v>
-      </c>
-      <c r="P35" s="21">
-        <v>-46.19</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>148.5</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" si="0"/>
-        <v>1485</v>
-      </c>
-      <c r="S35" s="7">
-        <f t="shared" si="1"/>
-        <v>47.269018098292918</v>
-      </c>
-      <c r="T35" s="1">
-        <v>6</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2">
-        <v>204</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2">
-        <v>93</v>
-      </c>
-      <c r="R36" s="6">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="S36" s="11">
-        <f t="shared" si="1"/>
-        <v>29.602819415092533</v>
-      </c>
-      <c r="T36" s="2">
-        <v>4</v>
-      </c>
-      <c r="U36" s="6">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="2" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="2">
-        <v>270</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>974</v>
+      <c r="D37" s="2">
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="5" t="s">
@@ -10774,821 +11715,866 @@
         <v>4</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="O37" s="21">
-        <v>-6.4512999999999998</v>
-      </c>
-      <c r="P37" s="21">
-        <v>21.75</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>223</v>
-      </c>
-      <c r="R37" s="6">
+        <v>1009</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="1">
+        <v>105</v>
+      </c>
+      <c r="T37" s="6">
         <f t="shared" si="0"/>
-        <v>2230</v>
-      </c>
-      <c r="S37" s="7">
+        <v>1050</v>
+      </c>
+      <c r="U37" s="7">
         <f t="shared" si="1"/>
-        <v>70.983104618985323</v>
-      </c>
-      <c r="T37" s="1">
-        <v>11</v>
-      </c>
-      <c r="U37" s="6">
-        <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="1"/>
+        <v>33.422538049298019</v>
+      </c>
+      <c r="V37" s="1">
+        <v>7</v>
+      </c>
+      <c r="W37" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>890</v>
+        <v>958</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2">
-        <v>266</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>975</v>
+      <c r="D38" s="2">
+        <v>116</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="5" t="s">
-        <v>316</v>
+        <v>612</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="32" t="s">
-        <v>997</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>1022</v>
+      <c r="I38" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="1">
-        <v>501</v>
-      </c>
-      <c r="R38" s="6">
+        <v>1009</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="21">
+        <v>-4.5073999999999996</v>
+      </c>
+      <c r="R38" s="21">
+        <v>-6.6</v>
+      </c>
+      <c r="S38" s="1">
+        <v>78</v>
+      </c>
+      <c r="T38" s="6">
         <f t="shared" si="0"/>
-        <v>5010</v>
-      </c>
-      <c r="S38" s="7">
+        <v>780</v>
+      </c>
+      <c r="U38" s="7">
         <f t="shared" si="1"/>
-        <v>159.47325297807913</v>
-      </c>
-      <c r="T38" s="1">
-        <v>18</v>
-      </c>
-      <c r="U38" s="6">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="1"/>
+        <v>24.828171122335672</v>
+      </c>
+      <c r="V38" s="1">
+        <v>3</v>
+      </c>
+      <c r="W38" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="2">
-        <v>211</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>976</v>
+      <c r="D39" s="2">
+        <v>119</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="5" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>1005</v>
+        <v>1011</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>1003</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="O39" s="21">
-        <v>-4.4039000000000001</v>
-      </c>
-      <c r="P39" s="21">
-        <v>-5.81</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>92</v>
-      </c>
-      <c r="R39" s="6">
+        <v>992</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21">
+        <v>-4.4330999999999996</v>
+      </c>
+      <c r="R39" s="21">
+        <v>-13.77</v>
+      </c>
+      <c r="S39" s="6">
+        <v>201</v>
+      </c>
+      <c r="T39" s="6">
         <f t="shared" si="0"/>
-        <v>920</v>
-      </c>
-      <c r="S39" s="7">
+        <v>2010</v>
+      </c>
+      <c r="U39" s="6">
         <f t="shared" si="1"/>
-        <v>29.284509528908742</v>
-      </c>
-      <c r="T39" s="1">
-        <v>7</v>
-      </c>
-      <c r="U39" s="6">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="1"/>
+        <v>63.980287122941931</v>
+      </c>
+      <c r="V39" s="6">
+        <v>4</v>
+      </c>
+      <c r="W39" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>889</v>
+        <v>975</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="2">
-        <v>200</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>965</v>
+      <c r="D40" s="2">
+        <v>121.1</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="5" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I40" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="O40" s="21">
-        <v>-4.4012000000000002</v>
-      </c>
-      <c r="P40" s="21">
-        <v>-9.4700000000000006</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>108</v>
-      </c>
-      <c r="R40" s="6">
+        <v>1011</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="6">
+        <v>47</v>
+      </c>
+      <c r="T40" s="6">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S40" s="7">
+        <v>470</v>
+      </c>
+      <c r="U40" s="7">
         <f t="shared" si="1"/>
-        <v>34.377467707849391</v>
-      </c>
-      <c r="T40" s="1">
-        <v>6</v>
-      </c>
-      <c r="U40" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="1" t="s">
-        <v>932</v>
-      </c>
+        <v>14.960564650638162</v>
+      </c>
+      <c r="V40" s="6">
+        <v>3</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>889</v>
+        <v>976</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="2">
-        <v>178</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>967</v>
+      <c r="D41" s="2">
+        <v>122.1</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="5" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I41" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>1011</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="1">
-        <v>99</v>
-      </c>
-      <c r="R41" s="6">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="6">
+        <v>36</v>
+      </c>
+      <c r="T41" s="6">
         <f t="shared" si="0"/>
-        <v>990</v>
-      </c>
-      <c r="S41" s="7">
+        <v>360</v>
+      </c>
+      <c r="U41" s="7">
         <f t="shared" si="1"/>
-        <v>31.512678732195276</v>
-      </c>
-      <c r="T41" s="1">
-        <v>12</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="1"/>
+        <v>11.459155902616464</v>
+      </c>
+      <c r="V41" s="6">
+        <v>2</v>
+      </c>
+      <c r="W41" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B42" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="2">
-        <v>111</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>1025</v>
+      <c r="D42" s="24">
+        <v>80</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M42" s="24" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>989</v>
-      </c>
-      <c r="O42" s="2">
-        <v>-4.4614000000000003</v>
-      </c>
-      <c r="P42" s="2">
-        <v>-15.51</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>160</v>
-      </c>
-      <c r="R42" s="6">
+        <v>1001</v>
+      </c>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="18">
+        <v>88</v>
+      </c>
+      <c r="T42" s="18">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="S42" s="7">
+        <v>880</v>
+      </c>
+      <c r="U42" s="26">
         <f t="shared" si="1"/>
-        <v>50.929581789406512</v>
-      </c>
-      <c r="T42" s="1">
-        <v>12</v>
-      </c>
-      <c r="U42" s="6">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="1"/>
+        <v>28.01126998417358</v>
+      </c>
+      <c r="V42" s="18">
+        <v>1</v>
+      </c>
+      <c r="W42" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="23" t="s">
+        <v>902</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B43" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="2">
-        <v>82</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>971</v>
+      <c r="D43" s="2">
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="F43" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>1011</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="1">
-        <v>105</v>
-      </c>
-      <c r="R43" s="6">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="S43" s="7">
-        <f t="shared" si="1"/>
-        <v>33.422538049298019</v>
-      </c>
-      <c r="T43" s="1">
-        <v>7</v>
-      </c>
-      <c r="U43" s="6">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
       <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1" t="s">
+        <v>987</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>892</v>
+        <v>963</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="2">
-        <v>116</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>963</v>
+      <c r="D44" s="2">
+        <v>168</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>612</v>
+        <v>771</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>14</v>
+        <v>770</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>1025</v>
+        <v>1016</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="O44" s="21">
-        <v>-4.5073999999999996</v>
-      </c>
-      <c r="P44" s="21">
-        <v>-6.6</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>78</v>
-      </c>
-      <c r="R44" s="6">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-      <c r="S44" s="7">
-        <f t="shared" si="1"/>
-        <v>24.828171122335672</v>
-      </c>
-      <c r="T44" s="1">
-        <v>3</v>
-      </c>
-      <c r="U44" s="6">
-        <f t="shared" si="3"/>
+        <v>1012</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="6">
+        <v>117</v>
+      </c>
+      <c r="T44" s="6">
+        <f t="shared" ref="T44:T49" si="3">S44*10</f>
+        <v>1170</v>
+      </c>
+      <c r="U44" s="7">
+        <f t="shared" ref="U44:U49" si="4">S44/PI()</f>
+        <v>37.242256683503513</v>
+      </c>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6">
         <v>0.3</v>
       </c>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="1"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="2">
-        <v>119</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>973</v>
+      <c r="D45" s="2">
+        <v>217</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>1027</v>
+        <v>1016</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>1021</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="O45" s="21">
-        <v>-4.4330999999999996</v>
-      </c>
-      <c r="P45" s="21">
-        <v>-13.77</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>201</v>
-      </c>
-      <c r="R45" s="6">
-        <f t="shared" si="0"/>
-        <v>2010</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
       <c r="S45" s="6">
-        <f t="shared" si="1"/>
-        <v>63.980287122941931</v>
+        <v>121</v>
       </c>
       <c r="T45" s="6">
-        <v>4</v>
-      </c>
-      <c r="U45" s="6">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="1"/>
+        <v>1210</v>
+      </c>
+      <c r="U45" s="7">
+        <f t="shared" si="4"/>
+        <v>38.515496228238675</v>
+      </c>
+      <c r="V45" s="6">
+        <v>3</v>
+      </c>
+      <c r="W45" s="6">
+        <f>V45/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>888</v>
+        <v>967</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="2">
-        <v>121.1</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>980</v>
+      <c r="D46" s="2">
+        <v>169</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>1027</v>
+        <v>1016</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>1022</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="6">
-        <v>47</v>
-      </c>
-      <c r="R46" s="6">
-        <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="S46" s="7">
-        <f t="shared" si="1"/>
-        <v>14.960564650638162</v>
+        <v>1012</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21">
+        <v>-4.3757999999999999</v>
+      </c>
+      <c r="R46" s="21">
+        <v>-5.53</v>
+      </c>
+      <c r="S46" s="6">
+        <v>184</v>
       </c>
       <c r="T46" s="6">
-        <v>3</v>
-      </c>
-      <c r="U46" s="6">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="1"/>
+        <v>1840</v>
+      </c>
+      <c r="U46" s="7">
+        <f t="shared" si="4"/>
+        <v>58.569019057817485</v>
+      </c>
+      <c r="V46" s="6">
+        <v>5</v>
+      </c>
+      <c r="W46" s="6">
+        <f>V46/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="2">
-        <v>122.1</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>981</v>
+      <c r="D47" s="2">
+        <v>213</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>102</v>
+        <v>534</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21">
+        <v>-7.2279</v>
+      </c>
+      <c r="R47" s="21">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="S47" s="6">
+        <v>72</v>
+      </c>
+      <c r="T47" s="6">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="U47" s="7">
+        <f t="shared" si="4"/>
+        <v>22.918311805232928</v>
+      </c>
+      <c r="V47" s="6">
+        <v>4</v>
+      </c>
+      <c r="W47" s="6">
+        <f>V47/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="2">
+        <v>214.3</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L47" s="2" t="s">
+      <c r="I48" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="6">
-        <v>36</v>
-      </c>
-      <c r="R47" s="6">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="S47" s="7">
-        <f t="shared" si="1"/>
-        <v>11.459155902616464</v>
-      </c>
-      <c r="T47" s="6">
+      <c r="J48" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="1">
+        <v>42</v>
+      </c>
+      <c r="T48" s="6">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="U48" s="7">
+        <f t="shared" si="4"/>
+        <v>13.369015219719209</v>
+      </c>
+      <c r="V48" s="1">
+        <v>5</v>
+      </c>
+      <c r="W48" s="6">
+        <f>V48/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="28">
+        <v>214.1</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N49" s="28"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="33">
+        <v>33</v>
+      </c>
+      <c r="T49" s="33">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="U49" s="37">
+        <f t="shared" si="4"/>
+        <v>10.504226244065093</v>
+      </c>
+      <c r="V49" s="33">
         <v>2</v>
       </c>
-      <c r="U47" s="6">
-        <f t="shared" si="3"/>
+      <c r="W49" s="33">
+        <f>V49/10</f>
         <v>0.2</v>
       </c>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="1"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="36"/>
     </row>
-    <row r="48" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>888</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="24">
-        <v>80</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="I48" s="30" t="s">
-        <v>993</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="18">
-        <v>88</v>
-      </c>
-      <c r="R48" s="18">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="S48" s="26">
-        <f t="shared" si="1"/>
-        <v>28.01126998417358</v>
-      </c>
-      <c r="T48" s="18">
-        <v>1</v>
-      </c>
-      <c r="U48" s="18">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="23" t="s">
-        <v>904</v>
-      </c>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" s="13"/>
+      <c r="N50" s="28"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="12">
-        <v>78</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="F49" t="s">
-        <v>628</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J49" s="12">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>992</v>
-      </c>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" s="13"/>
+      <c r="N51" s="28"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D50" s="13"/>
-      <c r="M50" s="28"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D51" s="13"/>
-      <c r="M51" s="28"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="D52" s="13"/>
-      <c r="M52" s="28"/>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" s="13"/>
+      <c r="N52" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A52"/>
-  <sortState ref="A2:X49">
-    <sortCondition ref="B2:B49"/>
-    <sortCondition ref="K2:K49"/>
+  <autoFilter ref="B1:B52"/>
+  <sortState ref="B2:Z49">
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="L2:L49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11599,8 +12585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="188" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="D14" zoomScale="135" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P34" sqref="N31:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11614,7 +12600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="149" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="158" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -38763,17 +39751,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -38991,20 +39979,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="79c78224-6e6b-4f94-a138-b59320f8e2b5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="79c78224-6e6b-4f94-a138-b59320f8e2b5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39027,26 +40015,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E67780A-32A6-4321-9DF1-9347B3C3E2FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5266FD73-27CD-4BE4-B7FC-CDC416B65A34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c061e5db-99e5-4c02-945d-1dedf2ebb7a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79c78224-6e6b-4f94-a138-b59320f8e2b5"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5266FD73-27CD-4BE4-B7FC-CDC416B65A34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E67780A-32A6-4321-9DF1-9347B3C3E2FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="c061e5db-99e5-4c02-945d-1dedf2ebb7a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="79c78224-6e6b-4f94-a138-b59320f8e2b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>